--- a/reports/corpus_dwi-unigram_bigram-fold-4.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-4.xlsx
@@ -586,88 +586,88 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933110367892977</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="I2" t="n">
         <v>0.9924242424242424</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9212598425196851</v>
+        <v>0.9448818897637795</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4096385542168675</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9758551307847082</v>
+        <v>0.96579476861167</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4336283185840708</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="R2" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8436018957345972</v>
+        <v>0.95260663507109</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4316939890710382</v>
+        <v>0.6502732240437158</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.535</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7771179730799683</v>
+        <v>0.8598574821852731</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6713159573580401</v>
+        <v>0.7680062012465283</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8754133174930283</v>
+        <v>0.901306140490051</v>
       </c>
     </row>
     <row r="3">
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9966442953020134</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.953125</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -716,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.475024485798237</v>
+        <v>0.6083650190114068</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -734,34 +734,34 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.994413407821229</v>
+        <v>0.995049504950495</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9080459770114943</v>
+        <v>0.9224806201550387</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9553571428571429</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7771179730799683</v>
+        <v>0.8598574821852731</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8792593345209624</v>
+        <v>0.869961563039631</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7771179730799683</v>
+        <v>0.8598574821852731</v>
       </c>
     </row>
     <row r="4">
@@ -774,88 +774,88 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9949748743718593</v>
+        <v>0.9983305509181971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8739495798319327</v>
+        <v>0.9384615384615383</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8070175438596492</v>
+        <v>0.8852459016393442</v>
       </c>
       <c r="I4" t="n">
         <v>0.9961977186311787</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9590163934426229</v>
+        <v>0.97165991902834</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5811965811965811</v>
+        <v>0.7885304659498207</v>
       </c>
       <c r="M4" t="n">
-        <v>0.898550724637681</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6389986824769434</v>
+        <v>0.7465007776049767</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.46875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.637837837837838</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9128205128205128</v>
+        <v>0.973365617433414</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9826589595375722</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5851851851851851</v>
+        <v>0.7628205128205127</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.685897435897436</v>
+        <v>0.8092485549132947</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7771179730799683</v>
+        <v>0.8598574821852731</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7314010609474375</v>
+        <v>0.7974120553885118</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7778565970845593</v>
+        <v>0.8615526130149798</v>
       </c>
     </row>
     <row r="5">
@@ -868,82 +868,82 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
         <v>131</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L5" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O5" t="n">
-        <v>1021</v>
+        <v>789</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U5" t="n">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="V5" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="W5" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="Z5" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="AA5" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7771179730799683</v>
+        <v>0.8598574821852731</v>
       </c>
       <c r="AC5" t="n">
         <v>2526</v>
